--- a/Code/Results/Cases/Case_5_191/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_191/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.50195342105291</v>
+        <v>21.33417609464704</v>
       </c>
       <c r="C2">
-        <v>17.80491887943694</v>
+        <v>13.73195939775041</v>
       </c>
       <c r="D2">
-        <v>3.23243653144397</v>
+        <v>5.42443164944441</v>
       </c>
       <c r="E2">
-        <v>6.888059901854547</v>
+        <v>11.71371822519192</v>
       </c>
       <c r="F2">
-        <v>64.25268216029836</v>
+        <v>56.73657998384415</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.311514655261734</v>
+        <v>10.62657631756334</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -462,25 +462,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.6777833970135</v>
+        <v>21.01014982325743</v>
       </c>
       <c r="C3">
-        <v>16.45053660850801</v>
+        <v>13.44516397771525</v>
       </c>
       <c r="D3">
-        <v>3.04324910080478</v>
+        <v>5.441226985526482</v>
       </c>
       <c r="E3">
-        <v>6.720934327282984</v>
+        <v>11.74800703038231</v>
       </c>
       <c r="F3">
-        <v>60.68416153817458</v>
+        <v>55.82059686701005</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.132029754693084</v>
+        <v>10.62669444130072</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -503,25 +503,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.51513414207047</v>
+        <v>20.81808330194159</v>
       </c>
       <c r="C4">
-        <v>15.58776202080361</v>
+        <v>13.27317944290382</v>
       </c>
       <c r="D4">
-        <v>2.925627917490126</v>
+        <v>5.452785114294226</v>
       </c>
       <c r="E4">
-        <v>6.625468090713444</v>
+        <v>11.77214752248055</v>
       </c>
       <c r="F4">
-        <v>58.46631482358837</v>
+        <v>55.26172774199275</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.026744131200374</v>
+        <v>10.6287120180379</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -544,25 +544,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.03031415683596</v>
+        <v>20.74166084315012</v>
       </c>
       <c r="C5">
-        <v>15.22802526081196</v>
+        <v>13.20425318476527</v>
       </c>
       <c r="D5">
-        <v>2.877269886932243</v>
+        <v>5.457805813967387</v>
       </c>
       <c r="E5">
-        <v>6.588314321210554</v>
+        <v>11.78275943283505</v>
       </c>
       <c r="F5">
-        <v>57.55582136839327</v>
+        <v>55.03509706198321</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.985026287153508</v>
+        <v>10.63002224102857</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -585,25 +585,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.94913626842781</v>
+        <v>20.72908571583854</v>
       </c>
       <c r="C6">
-        <v>15.16779119475019</v>
+        <v>13.19288166837758</v>
       </c>
       <c r="D6">
-        <v>2.869212811451264</v>
+        <v>5.458658185592003</v>
       </c>
       <c r="E6">
-        <v>6.582249318256868</v>
+        <v>11.78456825354816</v>
       </c>
       <c r="F6">
-        <v>57.40423567586414</v>
+        <v>54.99753884496895</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.978169431292161</v>
+        <v>10.63026924481121</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -626,25 +626,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.50864071280945</v>
+        <v>20.81704501867739</v>
       </c>
       <c r="C7">
-        <v>15.58294384471628</v>
+        <v>13.27224502208256</v>
       </c>
       <c r="D7">
-        <v>2.924977540512857</v>
+        <v>5.452851570715714</v>
       </c>
       <c r="E7">
-        <v>6.624959998179257</v>
+        <v>11.77228750506551</v>
       </c>
       <c r="F7">
-        <v>58.45406250114136</v>
+        <v>55.25866652454599</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.026176764767344</v>
+        <v>10.62872771360531</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -667,25 +667,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.88160239197633</v>
+        <v>21.22109236939054</v>
       </c>
       <c r="C8">
-        <v>17.34419315054873</v>
+        <v>13.63229510556415</v>
       </c>
       <c r="D8">
-        <v>3.167467720998062</v>
+        <v>5.429962578166369</v>
       </c>
       <c r="E8">
-        <v>6.828919885517623</v>
+        <v>11.72489924473359</v>
       </c>
       <c r="F8">
-        <v>63.02773961576828</v>
+        <v>56.42014548838525</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.248574625496638</v>
+        <v>10.62621276812223</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -708,25 +708,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.21625964616552</v>
+        <v>22.06286437968508</v>
       </c>
       <c r="C9">
-        <v>20.56818367508417</v>
+        <v>14.36542828665396</v>
       </c>
       <c r="D9">
-        <v>3.63486560022992</v>
+        <v>5.395077532701703</v>
       </c>
       <c r="E9">
-        <v>7.288307014313469</v>
+        <v>11.65654190538991</v>
       </c>
       <c r="F9">
-        <v>71.7992461914355</v>
+        <v>58.71623086377641</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.726554886654056</v>
+        <v>10.6367552520322</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -749,25 +749,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.24191775545636</v>
+        <v>22.70433347311664</v>
       </c>
       <c r="C10">
-        <v>22.82773366335754</v>
+        <v>14.91328305908673</v>
       </c>
       <c r="D10">
-        <v>3.979562156669926</v>
+        <v>5.375703544588938</v>
       </c>
       <c r="E10">
-        <v>7.667097721746623</v>
+        <v>11.62139843535167</v>
       </c>
       <c r="F10">
-        <v>78.17063731819994</v>
+        <v>60.4014863376362</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.108484105006337</v>
+        <v>10.65398212094585</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -790,25 +790,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.59460012126179</v>
+        <v>22.99963746556543</v>
       </c>
       <c r="C11">
-        <v>23.84121279681658</v>
+        <v>15.16304597305385</v>
       </c>
       <c r="D11">
-        <v>4.138573992145071</v>
+        <v>5.368282667360548</v>
       </c>
       <c r="E11">
-        <v>7.850058059517393</v>
+        <v>11.60870379205063</v>
       </c>
       <c r="F11">
-        <v>81.07258883271878</v>
+        <v>61.1651198114189</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.290599262609103</v>
+        <v>10.66388420803146</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -831,25 +831,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.10459669394871</v>
+        <v>23.1118400462183</v>
       </c>
       <c r="C12">
-        <v>24.22392736546123</v>
+        <v>15.25758697405174</v>
       </c>
       <c r="D12">
-        <v>4.199317805556616</v>
+        <v>5.365675639067001</v>
       </c>
       <c r="E12">
-        <v>7.921070317605385</v>
+        <v>11.60437138719287</v>
       </c>
       <c r="F12">
-        <v>82.17437228027954</v>
+        <v>61.45364111745116</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.360961023318438</v>
+        <v>10.66793099940383</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -872,25 +872,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.99483735468717</v>
+        <v>23.08766039212401</v>
       </c>
       <c r="C13">
-        <v>24.14153178923381</v>
+        <v>15.23722939185923</v>
       </c>
       <c r="D13">
-        <v>4.186208021490073</v>
+        <v>5.366228030820611</v>
       </c>
       <c r="E13">
-        <v>7.905695807622708</v>
+        <v>11.60528331210944</v>
       </c>
       <c r="F13">
-        <v>81.93690973450737</v>
+        <v>61.39153521181683</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.345741422803245</v>
+        <v>10.66704623857275</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -913,25 +913,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.63659487259309</v>
+        <v>23.00886158348295</v>
       </c>
       <c r="C14">
-        <v>23.87271373306116</v>
+        <v>15.1708253408007</v>
       </c>
       <c r="D14">
-        <v>4.143559401167778</v>
+        <v>5.368064098793146</v>
       </c>
       <c r="E14">
-        <v>7.855864263879744</v>
+        <v>11.60833783995911</v>
       </c>
       <c r="F14">
-        <v>81.16315932290574</v>
+        <v>61.18887088966495</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.296358612859969</v>
+        <v>10.66421118627684</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -954,25 +954,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.41690972320914</v>
+        <v>22.96064051363398</v>
       </c>
       <c r="C15">
-        <v>23.70794976250612</v>
+        <v>15.13014253788652</v>
       </c>
       <c r="D15">
-        <v>4.117512059405317</v>
+        <v>5.369215277711696</v>
       </c>
       <c r="E15">
-        <v>7.825573145607723</v>
+        <v>11.61027069457949</v>
       </c>
       <c r="F15">
-        <v>80.68967248226998</v>
+        <v>61.064642105046</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.266299124632695</v>
+        <v>10.66251332281504</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -995,25 +995,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.15313380558721</v>
+        <v>22.68509423064429</v>
       </c>
       <c r="C16">
-        <v>22.76129101644495</v>
+        <v>14.89696124279176</v>
       </c>
       <c r="D16">
-        <v>3.969231724087848</v>
+        <v>5.376216780773007</v>
       </c>
       <c r="E16">
-        <v>7.655370639558187</v>
+        <v>11.62229442858698</v>
       </c>
       <c r="F16">
-        <v>77.98124546730256</v>
+        <v>60.35150187716742</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.096766328250812</v>
+        <v>10.65337657001777</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1036,25 +1036,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.37252722577033</v>
+        <v>22.51686088568152</v>
       </c>
       <c r="C17">
-        <v>22.17749994514708</v>
+        <v>14.75396572697551</v>
       </c>
       <c r="D17">
-        <v>3.878966954641596</v>
+        <v>5.380870652416911</v>
       </c>
       <c r="E17">
-        <v>7.553806418599024</v>
+        <v>11.63051484536439</v>
       </c>
       <c r="F17">
-        <v>76.3220885428057</v>
+        <v>59.91308748018208</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.995029775154787</v>
+        <v>10.6483006064824</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1077,25 +1077,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.92122711363485</v>
+        <v>22.42043396983891</v>
       </c>
       <c r="C18">
-        <v>21.8402911135239</v>
+        <v>14.67177601581209</v>
       </c>
       <c r="D18">
-        <v>3.827241464442263</v>
+        <v>5.383678328514785</v>
       </c>
       <c r="E18">
-        <v>7.496376549921237</v>
+        <v>11.63555282671348</v>
       </c>
       <c r="F18">
-        <v>75.36794187011978</v>
+        <v>59.66065362951078</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.937287306766057</v>
+        <v>10.64557546991097</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1118,25 +1118,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.76799555302041</v>
+        <v>22.38784712926908</v>
       </c>
       <c r="C19">
-        <v>21.72584597040393</v>
+        <v>14.64396152654531</v>
       </c>
       <c r="D19">
-        <v>3.809755516983982</v>
+        <v>5.384651353007973</v>
       </c>
       <c r="E19">
-        <v>7.477096251519706</v>
+        <v>11.63731176798901</v>
       </c>
       <c r="F19">
-        <v>75.04485059782434</v>
+        <v>59.57514437638874</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.917864531776238</v>
+        <v>10.64468617240001</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1159,25 +1159,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.45585619188633</v>
+        <v>22.53473570896235</v>
       </c>
       <c r="C20">
-        <v>22.23978673976868</v>
+        <v>14.76918275443278</v>
       </c>
       <c r="D20">
-        <v>3.888554508647932</v>
+        <v>5.380361672251246</v>
       </c>
       <c r="E20">
-        <v>7.564514689919341</v>
+        <v>11.62960769302747</v>
       </c>
       <c r="F20">
-        <v>76.49867761023138</v>
+        <v>59.95978694254449</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.005778495604392</v>
+        <v>10.64882082823021</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1200,25 +1200,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.74186922178786</v>
+        <v>23.03199744578615</v>
       </c>
       <c r="C21">
-        <v>23.95169187578154</v>
+        <v>15.19033177075189</v>
       </c>
       <c r="D21">
-        <v>4.156070003119801</v>
+        <v>5.367519266288555</v>
       </c>
       <c r="E21">
-        <v>7.870452171702833</v>
+        <v>11.60742775561847</v>
       </c>
       <c r="F21">
-        <v>81.39032789316373</v>
+        <v>61.24841766541023</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.310823740706182</v>
+        <v>10.66503584749331</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1241,25 +1241,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.22365732278349</v>
+        <v>23.35913058884635</v>
       </c>
       <c r="C22">
-        <v>25.06495508198035</v>
+        <v>15.46530141010081</v>
       </c>
       <c r="D22">
-        <v>4.334134301555824</v>
+        <v>5.360311146176254</v>
       </c>
       <c r="E22">
-        <v>8.080620936771455</v>
+        <v>11.59569979343234</v>
       </c>
       <c r="F22">
-        <v>84.60575771580918</v>
+        <v>62.08672698572722</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.518477232722857</v>
+        <v>10.67736483197305</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1282,25 +1282,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.43345179111462</v>
+        <v>23.18437788051479</v>
       </c>
       <c r="C23">
-        <v>24.47089500113886</v>
+        <v>15.31860700261044</v>
       </c>
       <c r="D23">
-        <v>4.238717533205521</v>
+        <v>5.364048868553092</v>
       </c>
       <c r="E23">
-        <v>7.967431532817695</v>
+        <v>11.60170555530154</v>
       </c>
       <c r="F23">
-        <v>82.88694537946051</v>
+        <v>61.63973136927676</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.40680979193472</v>
+        <v>10.67062621541353</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1323,25 +1323,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.41819109703927</v>
+        <v>22.52665358018873</v>
       </c>
       <c r="C24">
-        <v>22.21163187225462</v>
+        <v>14.76230306412296</v>
       </c>
       <c r="D24">
-        <v>3.884219464565067</v>
+        <v>5.380591370928778</v>
       </c>
       <c r="E24">
-        <v>7.559670501982168</v>
+        <v>11.63001684503508</v>
       </c>
       <c r="F24">
-        <v>76.41884271835869</v>
+        <v>59.93867529365558</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.000916685506162</v>
+        <v>10.64858503451429</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1364,25 +1364,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.07458862239115</v>
+        <v>21.83058227052966</v>
       </c>
       <c r="C25">
-        <v>19.71780539835033</v>
+        <v>14.16496131831078</v>
       </c>
       <c r="D25">
-        <v>3.50873315690429</v>
+        <v>5.403427808182553</v>
       </c>
       <c r="E25">
-        <v>7.157229291727299</v>
+        <v>11.67239310460168</v>
       </c>
       <c r="F25">
-        <v>69.44402110970715</v>
+        <v>58.09445005625859</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.592306611289297</v>
+        <v>10.6322408869079</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_191/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_191/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.33417609464704</v>
+        <v>24.50195342105294</v>
       </c>
       <c r="C2">
-        <v>13.73195939775041</v>
+        <v>17.80491887943704</v>
       </c>
       <c r="D2">
-        <v>5.42443164944441</v>
+        <v>3.232436531444047</v>
       </c>
       <c r="E2">
-        <v>11.71371822519192</v>
+        <v>6.888059901854479</v>
       </c>
       <c r="F2">
-        <v>56.73657998384415</v>
+        <v>64.25268216029869</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.62657631756334</v>
+        <v>7.311514655261707</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -462,25 +462,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.01014982325743</v>
+        <v>22.67778339701363</v>
       </c>
       <c r="C3">
-        <v>13.44516397771525</v>
+        <v>16.45053660850811</v>
       </c>
       <c r="D3">
-        <v>5.441226985526482</v>
+        <v>3.043249100804649</v>
       </c>
       <c r="E3">
-        <v>11.74800703038231</v>
+        <v>6.720934327283038</v>
       </c>
       <c r="F3">
-        <v>55.82059686701005</v>
+        <v>60.68416153817474</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.62669444130072</v>
+        <v>7.132029754693028</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -503,25 +503,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.81808330194159</v>
+        <v>21.5151341420705</v>
       </c>
       <c r="C4">
-        <v>13.27317944290382</v>
+        <v>15.58776202080344</v>
       </c>
       <c r="D4">
-        <v>5.452785114294226</v>
+        <v>2.925627917490176</v>
       </c>
       <c r="E4">
-        <v>11.77214752248055</v>
+        <v>6.625468090713429</v>
       </c>
       <c r="F4">
-        <v>55.26172774199275</v>
+        <v>58.46631482358853</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.6287120180379</v>
+        <v>7.026744131200434</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -544,25 +544,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.74166084315012</v>
+        <v>21.030314156836</v>
       </c>
       <c r="C5">
-        <v>13.20425318476527</v>
+        <v>15.2280252608119</v>
       </c>
       <c r="D5">
-        <v>5.457805813967387</v>
+        <v>2.877269886932108</v>
       </c>
       <c r="E5">
-        <v>11.78275943283505</v>
+        <v>6.588314321210611</v>
       </c>
       <c r="F5">
-        <v>55.03509706198321</v>
+        <v>57.55582136839335</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.63002224102857</v>
+        <v>6.98502628715348</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -585,25 +585,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.72908571583854</v>
+        <v>20.9491362684279</v>
       </c>
       <c r="C6">
-        <v>13.19288166837758</v>
+        <v>15.16779119475018</v>
       </c>
       <c r="D6">
-        <v>5.458658185592003</v>
+        <v>2.86921281145136</v>
       </c>
       <c r="E6">
-        <v>11.78456825354816</v>
+        <v>6.582249318256861</v>
       </c>
       <c r="F6">
-        <v>54.99753884496895</v>
+        <v>57.40423567586436</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.63026924481121</v>
+        <v>6.978169431292184</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -626,25 +626,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.81704501867739</v>
+        <v>21.5086407128094</v>
       </c>
       <c r="C7">
-        <v>13.27224502208256</v>
+        <v>15.58294384471618</v>
       </c>
       <c r="D7">
-        <v>5.452851570715714</v>
+        <v>2.924977540513093</v>
       </c>
       <c r="E7">
-        <v>11.77228750506551</v>
+        <v>6.624959998179232</v>
       </c>
       <c r="F7">
-        <v>55.25866652454599</v>
+        <v>58.45406250114134</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.62872771360531</v>
+        <v>7.026176764767417</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -667,25 +667,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.22109236939054</v>
+        <v>23.88160239197635</v>
       </c>
       <c r="C8">
-        <v>13.63229510556415</v>
+        <v>17.34419315054869</v>
       </c>
       <c r="D8">
-        <v>5.429962578166369</v>
+        <v>3.167467720998185</v>
       </c>
       <c r="E8">
-        <v>11.72489924473359</v>
+        <v>6.82891988551759</v>
       </c>
       <c r="F8">
-        <v>56.42014548838525</v>
+        <v>63.0277396157682</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.62621276812223</v>
+        <v>7.2485746254966</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -708,25 +708,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.06286437968508</v>
+        <v>28.21625964616571</v>
       </c>
       <c r="C9">
-        <v>14.36542828665396</v>
+        <v>20.56818367508416</v>
       </c>
       <c r="D9">
-        <v>5.395077532701703</v>
+        <v>3.634865600229979</v>
       </c>
       <c r="E9">
-        <v>11.65654190538991</v>
+        <v>7.288307014313436</v>
       </c>
       <c r="F9">
-        <v>58.71623086377641</v>
+        <v>71.79924619143566</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.6367552520322</v>
+        <v>7.726554886654044</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -749,25 +749,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.70433347311664</v>
+        <v>31.24191775545617</v>
       </c>
       <c r="C10">
-        <v>14.91328305908673</v>
+        <v>22.82773366335747</v>
       </c>
       <c r="D10">
-        <v>5.375703544588938</v>
+        <v>3.979562156669864</v>
       </c>
       <c r="E10">
-        <v>11.62139843535167</v>
+        <v>7.667097721746672</v>
       </c>
       <c r="F10">
-        <v>60.4014863376362</v>
+        <v>78.17063731819925</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.65398212094585</v>
+        <v>8.108484105006344</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -790,25 +790,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.99963746556543</v>
+        <v>32.59460012126178</v>
       </c>
       <c r="C11">
-        <v>15.16304597305385</v>
+        <v>23.84121279681649</v>
       </c>
       <c r="D11">
-        <v>5.368282667360548</v>
+        <v>4.138573992145029</v>
       </c>
       <c r="E11">
-        <v>11.60870379205063</v>
+        <v>7.850058059517407</v>
       </c>
       <c r="F11">
-        <v>61.1651198114189</v>
+        <v>81.07258883271878</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.66388420803146</v>
+        <v>8.290599262609073</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -831,25 +831,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.1118400462183</v>
+        <v>33.10459669394881</v>
       </c>
       <c r="C12">
-        <v>15.25758697405174</v>
+        <v>24.22392736546121</v>
       </c>
       <c r="D12">
-        <v>5.365675639067001</v>
+        <v>4.199317805556708</v>
       </c>
       <c r="E12">
-        <v>11.60437138719287</v>
+        <v>7.921070317605353</v>
       </c>
       <c r="F12">
-        <v>61.45364111745116</v>
+        <v>82.17437228027975</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.66793099940383</v>
+        <v>8.360961023318438</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -872,25 +872,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.08766039212401</v>
+        <v>32.99483735468727</v>
       </c>
       <c r="C13">
-        <v>15.23722939185923</v>
+        <v>24.14153178923389</v>
       </c>
       <c r="D13">
-        <v>5.366228030820611</v>
+        <v>4.186208021490012</v>
       </c>
       <c r="E13">
-        <v>11.60528331210944</v>
+        <v>7.905695807622702</v>
       </c>
       <c r="F13">
-        <v>61.39153521181683</v>
+        <v>81.93690973450728</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.66704623857275</v>
+        <v>8.345741422803247</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -913,25 +913,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.00886158348295</v>
+        <v>32.63659487259304</v>
       </c>
       <c r="C14">
-        <v>15.1708253408007</v>
+        <v>23.87271373306114</v>
       </c>
       <c r="D14">
-        <v>5.368064098793146</v>
+        <v>4.14355940116774</v>
       </c>
       <c r="E14">
-        <v>11.60833783995911</v>
+        <v>7.855864263879806</v>
       </c>
       <c r="F14">
-        <v>61.18887088966495</v>
+        <v>81.16315932290551</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.66421118627684</v>
+        <v>8.296358612859994</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -954,25 +954,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.96064051363398</v>
+        <v>32.41690972320907</v>
       </c>
       <c r="C15">
-        <v>15.13014253788652</v>
+        <v>23.70794976250604</v>
       </c>
       <c r="D15">
-        <v>5.369215277711696</v>
+        <v>4.117512059405207</v>
       </c>
       <c r="E15">
-        <v>11.61027069457949</v>
+        <v>7.825573145607757</v>
       </c>
       <c r="F15">
-        <v>61.064642105046</v>
+        <v>80.68967248226993</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.66251332281504</v>
+        <v>8.266299124632699</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -995,25 +995,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.68509423064429</v>
+        <v>31.15313380558726</v>
       </c>
       <c r="C16">
-        <v>14.89696124279176</v>
+        <v>22.76129101644504</v>
       </c>
       <c r="D16">
-        <v>5.376216780773007</v>
+        <v>3.969231724087854</v>
       </c>
       <c r="E16">
-        <v>11.62229442858698</v>
+        <v>7.655370639558188</v>
       </c>
       <c r="F16">
-        <v>60.35150187716742</v>
+        <v>77.98124546730263</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.65337657001777</v>
+        <v>8.096766328250823</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1036,25 +1036,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.51686088568152</v>
+        <v>30.37252722577052</v>
       </c>
       <c r="C17">
-        <v>14.75396572697551</v>
+        <v>22.17749994514705</v>
       </c>
       <c r="D17">
-        <v>5.380870652416911</v>
+        <v>3.878966954641678</v>
       </c>
       <c r="E17">
-        <v>11.63051484536439</v>
+        <v>7.553806418599036</v>
       </c>
       <c r="F17">
-        <v>59.91308748018208</v>
+        <v>76.32208854280613</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.6483006064824</v>
+        <v>7.995029775154809</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1077,25 +1077,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.42043396983891</v>
+        <v>29.92122711363505</v>
       </c>
       <c r="C18">
-        <v>14.67177601581209</v>
+        <v>21.84029111352397</v>
       </c>
       <c r="D18">
-        <v>5.383678328514785</v>
+        <v>3.827241464442392</v>
       </c>
       <c r="E18">
-        <v>11.63555282671348</v>
+        <v>7.496376549921248</v>
       </c>
       <c r="F18">
-        <v>59.66065362951078</v>
+        <v>75.36794187012042</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.64557546991097</v>
+        <v>7.937287306766125</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1118,25 +1118,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.38784712926908</v>
+        <v>29.76799555302041</v>
       </c>
       <c r="C19">
-        <v>14.64396152654531</v>
+        <v>21.72584597040395</v>
       </c>
       <c r="D19">
-        <v>5.384651353007973</v>
+        <v>3.809755516983961</v>
       </c>
       <c r="E19">
-        <v>11.63731176798901</v>
+        <v>7.477096251519646</v>
       </c>
       <c r="F19">
-        <v>59.57514437638874</v>
+        <v>75.04485059782418</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.64468617240001</v>
+        <v>7.917864531776172</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1159,25 +1159,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.53473570896235</v>
+        <v>30.4558561918865</v>
       </c>
       <c r="C20">
-        <v>14.76918275443278</v>
+        <v>22.23978673976859</v>
       </c>
       <c r="D20">
-        <v>5.380361672251246</v>
+        <v>3.888554508647963</v>
       </c>
       <c r="E20">
-        <v>11.62960769302747</v>
+        <v>7.564514689919329</v>
       </c>
       <c r="F20">
-        <v>59.95978694254449</v>
+        <v>76.49867761023181</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.64882082823021</v>
+        <v>8.00577849560438</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1200,25 +1200,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.03199744578615</v>
+        <v>32.741869221788</v>
       </c>
       <c r="C21">
-        <v>15.19033177075189</v>
+        <v>23.95169187578171</v>
       </c>
       <c r="D21">
-        <v>5.367519266288555</v>
+        <v>4.156070003119952</v>
       </c>
       <c r="E21">
-        <v>11.60742775561847</v>
+        <v>7.870452171702823</v>
       </c>
       <c r="F21">
-        <v>61.24841766541023</v>
+        <v>81.39032789316445</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.66503584749331</v>
+        <v>8.310823740706249</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1241,25 +1241,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.35913058884635</v>
+        <v>34.22365732278362</v>
       </c>
       <c r="C22">
-        <v>15.46530141010081</v>
+        <v>25.06495508198033</v>
       </c>
       <c r="D22">
-        <v>5.360311146176254</v>
+        <v>4.334134301555955</v>
       </c>
       <c r="E22">
-        <v>11.59569979343234</v>
+        <v>8.080620936771417</v>
       </c>
       <c r="F22">
-        <v>62.08672698572722</v>
+        <v>84.60575771580967</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.67736483197305</v>
+        <v>8.518477232722871</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1282,25 +1282,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.18437788051479</v>
+        <v>33.43345179111449</v>
       </c>
       <c r="C23">
-        <v>15.31860700261044</v>
+        <v>24.47089500113876</v>
       </c>
       <c r="D23">
-        <v>5.364048868553092</v>
+        <v>4.238717533205583</v>
       </c>
       <c r="E23">
-        <v>11.60170555530154</v>
+        <v>7.967431532817688</v>
       </c>
       <c r="F23">
-        <v>61.63973136927676</v>
+        <v>82.88694537946064</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.67062621541353</v>
+        <v>8.406809791934705</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1323,25 +1323,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.52665358018873</v>
+        <v>30.41819109703891</v>
       </c>
       <c r="C24">
-        <v>14.76230306412296</v>
+        <v>22.21163187225467</v>
       </c>
       <c r="D24">
-        <v>5.380591370928778</v>
+        <v>3.88421946456503</v>
       </c>
       <c r="E24">
-        <v>11.63001684503508</v>
+        <v>7.559670501982181</v>
       </c>
       <c r="F24">
-        <v>59.93867529365558</v>
+        <v>76.41884271835818</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.64858503451429</v>
+        <v>8.000916685506128</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1364,25 +1364,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.83058227052966</v>
+        <v>27.07458862239124</v>
       </c>
       <c r="C25">
-        <v>14.16496131831078</v>
+        <v>19.71780539835024</v>
       </c>
       <c r="D25">
-        <v>5.403427808182553</v>
+        <v>3.508733156904362</v>
       </c>
       <c r="E25">
-        <v>11.67239310460168</v>
+        <v>7.157229291727317</v>
       </c>
       <c r="F25">
-        <v>58.09445005625859</v>
+        <v>69.44402110970714</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.6322408869079</v>
+        <v>7.592306611289295</v>
       </c>
       <c r="K25">
         <v>0</v>
